--- a/prep_and_checklists/Hamish & India/Hamish & India_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Hamish & India/Hamish & India_2025-05-02_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Hamish &amp; India/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3E68DE-6833-E742-9106-37BE2B211314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9B160-8078-3A45-BD69-B9D63B417C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="1480" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="760" windowWidth="30240" windowHeight="17880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>Hamish &amp; India 125 Guests 6:00 PM - 11:00 PM Friday, May 9, 2025</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Polenta</t>
   </si>
   <si>
-    <t>Veal demi</t>
-  </si>
-  <si>
     <t>Steelhead trout</t>
   </si>
   <si>
@@ -167,24 +164,9 @@
     <t>Butter beans</t>
   </si>
   <si>
-    <t>Broccolini</t>
-  </si>
-  <si>
     <t>Cauliflower</t>
   </si>
   <si>
-    <t>Coconut milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomato </t>
-  </si>
-  <si>
-    <t>Red onion</t>
-  </si>
-  <si>
-    <t>Parsley</t>
-  </si>
-  <si>
     <t>sliced salumi</t>
   </si>
   <si>
@@ -297,6 +279,54 @@
   </si>
   <si>
     <t>8pm-10pm Cheese and Charcuterie Station (150 ppl)</t>
+  </si>
+  <si>
+    <t>12 ct</t>
+  </si>
+  <si>
+    <t>*in-house</t>
+  </si>
+  <si>
+    <t>5x loins</t>
+  </si>
+  <si>
+    <t>3 cases</t>
+  </si>
+  <si>
+    <t>1 case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 sides, </t>
+  </si>
+  <si>
+    <t>1 cs</t>
+  </si>
+  <si>
+    <t>1cs</t>
+  </si>
+  <si>
+    <t>Meat and cheeses for sheese board</t>
+  </si>
+  <si>
+    <t>* See Chef mark</t>
+  </si>
+  <si>
+    <t>Assorted Crackers</t>
+  </si>
+  <si>
+    <t>Murrays</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Fruit and nut bread</t>
+  </si>
+  <si>
+    <t>8 pcs</t>
+  </si>
+  <si>
+    <t>Pain d'avignon</t>
   </si>
 </sst>
 </file>
@@ -748,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,12 +797,12 @@
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -788,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -796,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -804,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -812,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -832,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -840,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -848,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -856,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -873,10 +903,10 @@
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -884,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -892,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -900,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -908,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -916,7 +946,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -925,7 +955,7 @@
     </row>
     <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
@@ -936,7 +966,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -944,15 +974,15 @@
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -960,12 +990,12 @@
         <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -973,7 +1003,7 @@
     </row>
     <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
@@ -981,122 +1011,122 @@
     </row>
     <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1108,9 +1138,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1119,225 +1151,268 @@
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/prep_and_checklists/Hamish & India/Hamish & India_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Hamish & India/Hamish & India_2025-05-02_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Hamish &amp; India/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9B160-8078-3A45-BD69-B9D63B417C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35A12CB-8A42-BE4C-9AC6-8F81988B129E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="760" windowWidth="30240" windowHeight="17880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="1200" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>Hamish &amp; India 125 Guests 6:00 PM - 11:00 PM Friday, May 9, 2025</t>
   </si>
@@ -327,13 +327,28 @@
   </si>
   <si>
     <t>Pain d'avignon</t>
+  </si>
+  <si>
+    <t>Pea soup</t>
+  </si>
+  <si>
+    <t>Chilled Pea soup</t>
+  </si>
+  <si>
+    <t>12 quarts</t>
+  </si>
+  <si>
+    <t>Goat Cheese</t>
+  </si>
+  <si>
+    <t>croutons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +422,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -449,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,6 +491,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,10 +800,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -850,8 +874,8 @@
       <c r="B10" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
+      <c r="A12" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -859,43 +883,31 @@
     </row>
     <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -903,244 +915,291 @@
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="41" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="42" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="75" orientation="portrait"/>
+  <pageSetup scale="66" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1414,6 +1473,6 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="62" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>